--- a/src/main/resources/excelTemplate/UserList.xlsx
+++ b/src/main/resources/excelTemplate/UserList.xlsx
@@ -103,7 +103,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="userList" var="DTO" lastCell="J3")</t>
+          <t>jx:each(items="userList" var="DTO" groupBy="age" varStatus="status" lastCell="J3")</t>
         </r>
       </text>
     </comment>
@@ -114,10 +114,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>用户Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${DTO.id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${DTO.mobile}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,6 +187,14 @@
   </si>
   <si>
     <t>用户基本信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${status.index}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -622,66 +622,66 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
